--- a/서울_풋살장_결과.xlsx
+++ b/서울_풋살장_결과.xlsx
@@ -703,7 +703,11 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20200313_117%2F1584070247621xDCyj_JPEG%2F8VXS_YDrEDwxItWJfQUw1oSO.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -722,7 +726,11 @@
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20170816_155%2F1502863510371BAQEP_JPEG%2F9hZZkhAsxblOj2gezHiB90rh.JPG.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -741,7 +749,11 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20241125_239%2F1732530467353gbQUU_PNG%2FIMG_9813.png</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -760,7 +772,11 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20231015_110%2F1697374894263Mcidv_JPEG%2FIMG_2890.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -779,7 +795,11 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20250220_131%2F1740035542364D5fli_JPEG%2F_DSF9348.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -909,7 +929,11 @@
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20230319_23%2F1679189742091bmJNB_JPEG%2F%25C1%25A6%25B8%25F1_%25BE%25F8%25C0%25BD-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -928,7 +952,11 @@
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20250218_30%2F1739858543571E4l1L_JPEG%2F%25BD%25BA%25C6%25AE%25B8%25AE%25C6%25AE_01.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -947,7 +975,11 @@
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fsearchad-phinf.pstatic.net%2FMjAyNTAyMjBfMTYg%2FMDAxNzQwMDMxODMwNTU0.d42xlChMyyQpxsxn8TVXV3LSIOb3pofftVyzMxT29oYg.Wsfw5rZ4N2WETgAUkalPV66PXoKrSHhJwR8XwGrMsukg.PNG%2F3402534-117047a8-670e-4894-baec-ec0aae9bff08.png</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -966,7 +998,11 @@
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fsearchad-phinf.pstatic.net%2FMjAyNTA0MDhfMTUg%2FMDAxNzQ0MDg5NjMxODM4.VepbSjdRyN6Fn8Gixpglrbnn_-etLXS-tLXZJ3s91zIg.DEuEAudry5f9r9vDYKpTXKfLA_ucUTFxZV05WyhVDccg.JPEG%2F3433277-051bc362-a8af-432c-b409-6454f8ba897e.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1119,7 +1155,11 @@
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20200609_101%2F1591696721716QEOSR_JPEG%2F_yJU3cDAshQ7CoykwB3L2mdq.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1176,7 +1216,11 @@
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20250310_12%2F1741614820894GuEDl_JPEG%2FIMG_9552.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1325,7 +1369,11 @@
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20221128_246%2F1669626699111qKLdA_JPEG%2FKakaoTalk_20221128_181028363.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1344,7 +1392,11 @@
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20230117_40%2F16739285693319BrSL_JPEG%2F5.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1363,7 +1415,11 @@
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20240709_135%2F1720492532371PnMjo_JPEG%2FDSC03311.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1451,7 +1507,11 @@
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20230916_205%2F1694835840874hDFf9_JPEG%2F1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1470,7 +1530,11 @@
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20231214_1%2F1702529465743SgKgA_PNG%2F231214_%25BE%25C6%25BD%25C3%25BE%25C6%25C6%25DB%25BD%25C3%25C7%25C8.png</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1489,7 +1553,11 @@
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20240125_77%2F1706159332081DGSEz_JPEG%2F%25B8%25B6%25B7%25E7%25C7%25B2%25BB%25EC%25C0%25E5.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1508,7 +1576,11 @@
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20220608_252%2F1654670266364fjTLQ_JPEG%2FKakaoTalk_20220608_153215371.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1649,7 +1721,11 @@
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20210129_33%2F1611898661265m9EMl_JPEG%2FDLQBFJAdW45qdMxvj6LYjHbB.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1668,7 +1744,11 @@
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20240207_49%2F1707289423366AkCAL_JPEG%2FKakaoTalk_20240207_155834049.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1687,7 +1767,11 @@
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20200216_4%2F1581864167699oHMdo_JPEG%2FFVic1KFf_Wg6O-__zmhsia5g.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">

--- a/서울_풋살장_결과.xlsx
+++ b/서울_풋살장_결과.xlsx
@@ -479,7 +479,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fsearchad-phinf.pstatic.net%2FMjAyNTA0MDlfMjA0%2FMDAxNzQ0MTg3OTQ4OTc1.F9nJ5MjgJTWNLHZdAzrvyao2i3fq6_1wmyIjxDqmCOEg.gUkzGdZ6fcMW4txwc3DydrOl5oawdVzXbhU8XrbBm9Eg.PNG%2F3218808-520047ad-8797-4a73-9b04-5074d65391d1.png</t>
+          <t>https://search.pstatic.net/common/?autoRotate=true&amp;quality=95&amp;type=f160_160&amp;src=https%3A%2F%2Fsearchad-phinf.pstatic.net%2FMjAyNDExMTJfMTcz%2FMDAxNzMxMzg3NDgwNjcw.7stuPaNb8sCc_78nQIu5iiWlW_R-xwI3WFFbVM-OeS4g.IrF9t3caiW_OKTuhirplUoVQsG0DVu4pnqK5Xcg8XrUg.PNG%2F3218808-b051e77c-824c-4e84-95bd-b6afee22ed27.png</t>
         </is>
       </c>
     </row>
